--- a/Proyectos/2015/12/P1390 - CNOM, Osiris Carrion _MO/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2015/12/P1390 - CNOM, Osiris Carrion _MO/Calidad/No_conformidades.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>REPORTE DE NO CONFORMIDADES P1390 - CNOM, Osiris Carrion _MO</t>
   </si>
@@ -44,22 +44,25 @@
     <t>Plan de proyecto agregar efecto en plan de riesgos</t>
   </si>
   <si>
-    <t>Oriana Osiris</t>
+    <t>Marisol Ornelas</t>
+  </si>
+  <si>
+    <t>Cerrada</t>
+  </si>
+  <si>
+    <t>Plan de riegos en recursos humanos donde dice &lt;Cliente&gt; cambiarlo por nombre de cliente e &lt;interno&gt; por SOS Software</t>
+  </si>
+  <si>
+    <t>Plan de proyecto agregar fecha de cierre</t>
+  </si>
+  <si>
+    <t>Si el cliente no contesta en varios intentos hasta el 4 de enero agregar q no se obtuvo respuesta</t>
+  </si>
+  <si>
+    <t>Enviar carta de aceptación</t>
   </si>
   <si>
     <t>En proceso</t>
-  </si>
-  <si>
-    <t>Plan de riegos en recursos humanos donde dice &lt;Cliente&gt; cambiarlo por nombre de cliente e &lt;interno&gt; por SOS Software</t>
-  </si>
-  <si>
-    <t>Plan de proyecto agregar fecha de cierre</t>
-  </si>
-  <si>
-    <t>Si el cliente no contesta en varios intentos hasta el 4 de enero agregar q no se obtuvo respuesta</t>
-  </si>
-  <si>
-    <t>Enviar carta de aceptación</t>
   </si>
   <si>
     <t>Registrar bitrix actividad de cierre</t>
@@ -79,7 +82,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -124,12 +127,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -206,7 +203,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -237,10 +234,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -323,7 +316,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -395,7 +388,9 @@
       <c r="D4" s="5" t="n">
         <v>42373</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="n">
+        <v>42383</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
@@ -414,7 +409,9 @@
       <c r="D5" s="5" t="n">
         <v>42373</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="n">
+        <v>42383</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
@@ -433,7 +430,9 @@
       <c r="D6" s="5" t="n">
         <v>42373</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="n">
+        <v>42383</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
@@ -454,9 +453,11 @@
       <c r="D7" s="5" t="n">
         <v>42375</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="n">
+        <v>42383</v>
+      </c>
       <c r="F7" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -465,7 +466,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -473,8 +474,10 @@
       <c r="D8" s="5" t="n">
         <v>42373</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="5" t="n">
+        <v>42383</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="4"/>
@@ -484,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
@@ -492,8 +495,10 @@
       <c r="D9" s="5" t="n">
         <v>42373</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="5" t="n">
+        <v>42383</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="4"/>
@@ -503,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
@@ -511,8 +516,10 @@
       <c r="D10" s="5" t="n">
         <v>42373</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="5" t="n">
+        <v>42383</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="4"/>
